--- a/www/IndicatorsPerCountry/SaoTomeandPrincipe_GDPperCapita_TerritorialRef_1975_2012_CCode_678.xlsx
+++ b/www/IndicatorsPerCountry/SaoTomeandPrincipe_GDPperCapita_TerritorialRef_1975_2012_CCode_678.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/SaoTomeandPrincipe_GDPperCapita_TerritorialRef_1975_2012_CCode_678.xlsx
+++ b/www/IndicatorsPerCountry/SaoTomeandPrincipe_GDPperCapita_TerritorialRef_1975_2012_CCode_678.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>820</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>1165</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>1337</t>
-  </si>
-  <si>
-    <t>1389</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>1483</t>
-  </si>
-  <si>
-    <t>1423</t>
-  </si>
-  <si>
-    <t>1355</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>1667</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>1755</t>
-  </si>
-  <si>
-    <t>1568</t>
-  </si>
-  <si>
-    <t>1406</t>
-  </si>
-  <si>
-    <t>1487</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>1409</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>1392</t>
-  </si>
-  <si>
-    <t>1390.73901861</t>
-  </si>
-  <si>
-    <t>1355.06885546</t>
-  </si>
-  <si>
-    <t>1327.28240914</t>
-  </si>
-  <si>
-    <t>1306.56296628</t>
-  </si>
-  <si>
-    <t>1299.93087073</t>
-  </si>
-  <si>
-    <t>1284.29655575</t>
-  </si>
-  <si>
-    <t>1267.55277339</t>
-  </si>
-  <si>
-    <t>1243.1233302</t>
-  </si>
-  <si>
-    <t>1231.80589402</t>
-  </si>
-  <si>
-    <t>1226.0437504</t>
-  </si>
-  <si>
-    <t>1225.39825443</t>
-  </si>
-  <si>
-    <t>1235.44267001</t>
-  </si>
-  <si>
-    <t>1255.23503396</t>
-  </si>
-  <si>
-    <t>1295.28527522</t>
-  </si>
-  <si>
-    <t>1331.62386578</t>
-  </si>
-  <si>
-    <t>1364.57644826</t>
-  </si>
-  <si>
-    <t>1409.87636469</t>
-  </si>
-  <si>
-    <t>1446.25100712</t>
-  </si>
-  <si>
-    <t>1484.15446847</t>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1274</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1454</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1816</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>2243</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>2399</t>
+  </si>
+  <si>
+    <t>2469</t>
+  </si>
+  <si>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>2911</t>
+  </si>
+  <si>
+    <t>2909</t>
+  </si>
+  <si>
+    <t>3295</t>
+  </si>
+  <si>
+    <t>3182</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>2656</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>2622</t>
+  </si>
+  <si>
+    <t>2418</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>2203.00813175114</t>
+  </si>
+  <si>
+    <t>2185.4643254892</t>
+  </si>
+  <si>
+    <t>2183.87428073787</t>
+  </si>
+  <si>
+    <t>2204.87664069323</t>
+  </si>
+  <si>
+    <t>2219.48136184419</t>
+  </si>
+  <si>
+    <t>2221.05351968547</t>
+  </si>
+  <si>
+    <t>2209.4181975596</t>
+  </si>
+  <si>
+    <t>2228.90506332737</t>
+  </si>
+  <si>
+    <t>2247.1224156595</t>
+  </si>
+  <si>
+    <t>2218.81962079457</t>
+  </si>
+  <si>
+    <t>2245.60631651899</t>
+  </si>
+  <si>
+    <t>2250.08942977175</t>
+  </si>
+  <si>
+    <t>2363.18241757288</t>
+  </si>
+  <si>
+    <t>2408.76066405067</t>
+  </si>
+  <si>
+    <t>2532.87064781944</t>
+  </si>
+  <si>
+    <t>2713.76185065576</t>
+  </si>
+  <si>
+    <t>2752.0877005857</t>
+  </si>
+  <si>
+    <t>2925.88578119554</t>
+  </si>
+  <si>
+    <t>2949.88671635222</t>
+  </si>
+  <si>
+    <t>3093.34521518149</t>
+  </si>
+  <si>
+    <t>3179</t>
+  </si>
+  <si>
+    <t>3217</t>
+  </si>
+  <si>
+    <t>3314</t>
+  </si>
+  <si>
+    <t>3474</t>
+  </si>
+  <si>
+    <t>3545</t>
+  </si>
+  <si>
+    <t>3624</t>
   </si>
   <si>
     <t>Description</t>
@@ -849,7 +876,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +893,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -883,7 +910,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +927,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +944,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -934,7 +961,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -951,7 +978,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -968,7 +995,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1012,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1002,7 +1029,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1046,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1036,7 +1063,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1080,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1097,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1114,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1131,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1148,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1165,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1182,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -1172,7 +1199,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -1189,7 +1216,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1233,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55">
@@ -1223,7 +1250,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -1240,7 +1267,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1257,7 +1284,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -1274,7 +1301,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -1291,7 +1318,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
@@ -1308,7 +1335,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
